--- a/docs/Excel_sprint2.xlsx
+++ b/docs/Excel_sprint2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sprint1\git-group-repository-group-3-sec-2-v-2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850DDD3F-0326-461F-AC8F-0CD53A656302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D6D62B-8FFE-46F7-9420-9F757C08B00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="147">
   <si>
     <t>A-DAPT Blueprint</t>
   </si>
@@ -426,9 +426,6 @@
     <t>18. As an authorized researchers, I want to keep the lab information up-to-date.</t>
   </si>
   <si>
-    <t>ทำจริง</t>
-  </si>
-  <si>
     <t>เปลี่ยนจากหน้า Dashboard เป็นหน้า Research group</t>
   </si>
   <si>
@@ -478,6 +475,12 @@
   </si>
   <si>
     <t>Edit Research Group: เลือก Edit AIDA Group ที่ รศ. ดร.อุรฉัตร โคแก้ว เป็น Research Group Member</t>
+  </si>
+  <si>
+    <t>Actual Time</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -830,7 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -893,9 +896,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -928,6 +928,49 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -992,49 +1035,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1508,7 +1508,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>210346</xdr:colOff>
+      <xdr:colOff>210347</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>821762</xdr:rowOff>
     </xdr:to>
@@ -1795,10 +1795,10 @@
       <c r="I3" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="37"/>
+      <c r="K3" s="51"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2788,8 +2788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I995"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="35" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A21" zoomScale="35" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.95"/>
@@ -2805,14 +2805,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="1.55">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
       <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
@@ -2832,54 +2832,54 @@
       <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="37"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="44.5" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="65">
         <f ca="1">TODAY()</f>
         <v>45713</v>
       </c>
-      <c r="F4" s="37"/>
+      <c r="F4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="36.5" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="52"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="37"/>
+      <c r="F5" s="51"/>
     </row>
     <row r="6" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="51"/>
     </row>
     <row r="7" spans="1:9" ht="32.5" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A7" s="8"/>
@@ -2910,301 +2910,346 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="107" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A10" s="55"/>
-      <c r="B10" s="30" t="s">
+      <c r="A10" s="69"/>
+      <c r="B10" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="22" t="str">
-        <f>IF(E10="","",IF(D10=E10,"Pass","Fail"))</f>
-        <v/>
+      <c r="E10" s="38" t="s">
+        <v>99</v>
       </c>
+      <c r="F10" s="22" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="74" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A11" s="55"/>
-      <c r="B11" s="31" t="s">
+      <c r="A11" s="69"/>
+      <c r="B11" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="22" t="str">
-        <f t="shared" ref="F11:F15" si="0">IF(E11="","",IF(D11=E11,"Pass","Fail"))</f>
-        <v/>
+      <c r="E11" s="39" t="s">
+        <v>100</v>
       </c>
+      <c r="F11" s="22" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="68" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A12" s="56"/>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="70"/>
+      <c r="B12" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E12" s="40" t="s">
+        <v>101</v>
       </c>
+      <c r="F12" s="22" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="105.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E13" s="37" t="s">
+        <v>102</v>
       </c>
+      <c r="F13" s="22" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="119" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A14" s="39"/>
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="61" t="s">
-        <v>143</v>
+      <c r="D14" s="37" t="s">
+        <v>142</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E14" s="37" t="s">
+        <v>142</v>
       </c>
+      <c r="F14" s="22" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="105.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A15" s="39"/>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F11:F15" si="0">IF(E15="","",IF(D15=E15,"Pass","Fail"))</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:9" ht="81.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A16" s="40"/>
-      <c r="B16" s="33" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="65"/>
-      <c r="F16" s="66" t="str">
+      <c r="E16" s="41"/>
+      <c r="F16" s="42" t="str">
         <f t="shared" ref="F16" si="1">IF(E16="","",IF(D16=E16,"Pass","Fail"))</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:6" ht="101" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
+      <c r="E17" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A18" s="39"/>
-      <c r="B18" s="33" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A19" s="54"/>
+      <c r="B19" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="104.5" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A20" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A21" s="53"/>
+      <c r="B21" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A22" s="53"/>
+      <c r="B22" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="62.5" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A23" s="54"/>
+      <c r="B23" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="89.5" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A24" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="97" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A25" s="53"/>
+      <c r="B25" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="95.5" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A26" s="53"/>
+      <c r="B26" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-    </row>
-    <row r="19" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A19" s="40"/>
-      <c r="B19" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-    </row>
-    <row r="20" spans="1:6" ht="104.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A20" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A21" s="39"/>
-      <c r="B21" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-    </row>
-    <row r="22" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A22" s="39"/>
-      <c r="B22" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="61" t="s">
+      <c r="D26" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-    </row>
-    <row r="23" spans="1:6" ht="62.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A23" s="40"/>
-      <c r="B23" s="33" t="s">
-        <v>38</v>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+    </row>
+    <row r="27" spans="1:6" ht="86" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A27" s="54"/>
+      <c r="B27" s="32" t="s">
+        <v>126</v>
       </c>
-      <c r="C23" s="61" t="s">
-        <v>119</v>
+      <c r="C27" s="37" t="s">
+        <v>115</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="D27" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-    </row>
-    <row r="24" spans="1:6" ht="89.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A24" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-    </row>
-    <row r="25" spans="1:6" ht="97" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A25" s="39"/>
-      <c r="B25" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-    </row>
-    <row r="26" spans="1:6" ht="95.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A26" s="39"/>
-      <c r="B26" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-    </row>
-    <row r="27" spans="1:6" ht="86" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A27" s="40"/>
-      <c r="B27" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
     </row>
     <row r="28" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.95"/>
     <row r="29" spans="1:6" ht="129" customHeight="1" x14ac:dyDescent="0.95"/>
@@ -5880,6 +5925,7 @@
   <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1" display="https://sesec2group3.cpkkuhost.com/login" xr:uid="{B911B328-D7FC-4C5A-A8A8-9E4AA987106D}"/>
+    <hyperlink ref="E10" r:id="rId2" display="https://sesec2group3.cpkkuhost.com/login" xr:uid="{EB7A6C13-5666-4508-8EB2-45DF4715D203}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5890,7 +5936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AFB6D5-220A-454B-B777-AAF64CF1B0EA}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="66" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -5901,42 +5947,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27">
+      <c r="A1" s="26">
         <v>45707</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27">
+      <c r="A2" s="26">
         <v>45708</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27">
+      <c r="A3" s="26">
         <v>45709</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27">
+      <c r="A4" s="26">
         <v>45712</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>45713</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5950,7 +5996,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="38" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6269,10 +6315,10 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="53.5" customHeight="1" x14ac:dyDescent="1.95">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="58"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="13">
         <f>SUM(C2:C9)</f>
         <v>85</v>
@@ -34035,8 +34081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="34" workbookViewId="0">
-      <selection activeCell="AJ29" sqref="AJ29"/>
+    <sheetView tabSelected="1" zoomScale="34" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -34047,7 +34093,8 @@
     <col min="4" max="4" width="79.453125" customWidth="1"/>
     <col min="5" max="5" width="33.81640625" customWidth="1"/>
     <col min="6" max="6" width="48.26953125" customWidth="1"/>
-    <col min="7" max="26" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="27.36328125" customWidth="1"/>
+    <col min="8" max="26" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -34070,7 +34117,7 @@
         <v>64</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>65</v>
@@ -34101,16 +34148,16 @@
       <c r="C2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>89</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="69">
+      <c r="F2" s="45">
         <v>2</v>
       </c>
-      <c r="G2" s="72">
+      <c r="G2" s="48">
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
@@ -34142,16 +34189,16 @@
       <c r="C3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>90</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="69">
+      <c r="F3" s="45">
         <v>2</v>
       </c>
-      <c r="G3" s="72">
+      <c r="G3" s="48">
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
@@ -34181,18 +34228,18 @@
         <v>70</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>129</v>
+      <c r="D4" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="69">
+      <c r="F4" s="45">
         <v>2</v>
       </c>
-      <c r="G4" s="72">
+      <c r="G4" s="48">
         <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
@@ -34222,19 +34269,19 @@
         <v>71</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="4">
         <v>4</v>
       </c>
       <c r="F5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="47">
         <v>1</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="49" t="s">
         <v>72</v>
       </c>
       <c r="J5" s="8"/>
@@ -34261,9 +34308,9 @@
         <v>73</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="4">
         <v>4</v>
       </c>
@@ -34273,7 +34320,7 @@
       <c r="G6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="49" t="s">
         <v>72</v>
       </c>
       <c r="J6" s="8"/>
@@ -34300,9 +34347,9 @@
         <v>74</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="4">
         <v>6</v>
       </c>
@@ -34312,7 +34359,7 @@
       <c r="G7" s="4">
         <v>2</v>
       </c>
-      <c r="I7" s="73" t="s">
+      <c r="I7" s="49" t="s">
         <v>72</v>
       </c>
       <c r="J7" s="8"/>
@@ -34339,9 +34386,9 @@
         <v>75</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="4">
         <v>6</v>
       </c>
@@ -34351,7 +34398,7 @@
       <c r="G8" s="4">
         <v>4</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="49" t="s">
         <v>72</v>
       </c>
       <c r="J8" s="8"/>
@@ -34380,7 +34427,7 @@
       <c r="C9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="4">
         <v>10</v>
       </c>
@@ -34390,7 +34437,7 @@
       <c r="G9" s="4">
         <v>4</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="49" t="s">
         <v>77</v>
       </c>
       <c r="J9" s="8"/>
@@ -34417,9 +34464,9 @@
         <v>78</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="4">
         <v>6</v>
       </c>
@@ -34429,7 +34476,7 @@
       <c r="G10" s="4">
         <v>2</v>
       </c>
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="49" t="s">
         <v>72</v>
       </c>
       <c r="J10" s="8"/>
@@ -34456,9 +34503,9 @@
         <v>79</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="4">
         <v>6</v>
       </c>
@@ -34468,7 +34515,7 @@
       <c r="G11" s="4">
         <v>3</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="49" t="s">
         <v>72</v>
       </c>
       <c r="J11" s="8"/>
@@ -34495,9 +34542,9 @@
         <v>80</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="4">
         <v>6</v>
       </c>
@@ -34507,7 +34554,7 @@
       <c r="G12" s="4">
         <v>1</v>
       </c>
-      <c r="I12" s="73" t="s">
+      <c r="I12" s="49" t="s">
         <v>72</v>
       </c>
       <c r="J12" s="8"/>
@@ -34534,9 +34581,9 @@
         <v>81</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="4">
         <v>6</v>
       </c>
@@ -34546,8 +34593,8 @@
       <c r="G13" s="4">
         <v>6</v>
       </c>
-      <c r="I13" s="73" t="s">
-        <v>141</v>
+      <c r="I13" s="49" t="s">
+        <v>140</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -34573,7 +34620,7 @@
         <v>82</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="4">
         <v>8</v>
@@ -34584,7 +34631,7 @@
       <c r="G14" s="4">
         <v>4</v>
       </c>
-      <c r="I14" s="73" t="s">
+      <c r="I14" s="49" t="s">
         <v>69</v>
       </c>
       <c r="J14" s="8"/>
@@ -34611,9 +34658,9 @@
         <v>86</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>91</v>
       </c>
       <c r="E15" s="4">
@@ -34622,10 +34669,10 @@
       <c r="F15" s="4">
         <v>2</v>
       </c>
-      <c r="G15" s="70">
+      <c r="G15" s="46">
         <v>4</v>
       </c>
-      <c r="I15" s="73" t="s">
+      <c r="I15" s="49" t="s">
         <v>69</v>
       </c>
       <c r="J15" s="8"/>
@@ -34651,8 +34698,8 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="72"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="48"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -34682,8 +34729,8 @@
         <f>SUM(E2:E16)</f>
         <v>70</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="72">
+      <c r="F17" s="45"/>
+      <c r="G17" s="48">
         <f>SUM(G2:G16)</f>
         <v>32</v>
       </c>
